--- a/SCRUM/Product Backlog.xlsx
+++ b/SCRUM/Product Backlog.xlsx
@@ -10,31 +10,22 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mi9Na/d40IU3fsgAhsoevD2MB2Uww=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miifUTFKpEHNnBGMzqz5MAxvvY0Wg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="171">
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
-  </si>
-  <si>
-    <t>Pila de Producto (Product Backlog): Instructivo</t>
   </si>
   <si>
     <t>Elaborado por: Agustín Basilio, Fabricio Cruz y Antonio Segura</t>
   </si>
   <si>
-    <t>Elaborado por: miembros</t>
-  </si>
-  <si>
     <t>Identificador (ID) de la Historia</t>
-  </si>
-  <si>
-    <t>Columna</t>
   </si>
   <si>
     <t>Enunciado de la Historia</t>
@@ -49,9 +40,6 @@
     <t>Dimensión / Esfuerzo</t>
   </si>
   <si>
-    <t>Instrucciones</t>
-  </si>
-  <si>
     <t>Iteración (Sprint)</t>
   </si>
   <si>
@@ -59,9 +47,6 @@
   </si>
   <si>
     <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Código que identifica a la historia de forma unívoca, una vez asignado, no debe ser re-usado en otra historia, ni siquiera si la historia es descartada. El código identifica la historia en otros documentos, como por ejemplo la plantilla de historias de usuario.</t>
   </si>
   <si>
     <t>1-1</t>
@@ -76,18 +61,10 @@
     <t>Hecho</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de la historia, el cual debe ser el mismo que se utiliza en otros documentos. Se puede utilizar el formato siguiente:
-Como un [Rol], Necesito [Descripción de la Funcionalidad], con la finalidad de [Razón o Resultado]
-</t>
-  </si>
-  <si>
     <t>1er Sprint</t>
   </si>
   <si>
     <t>Alta</t>
-  </si>
-  <si>
-    <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
   </si>
   <si>
     <t>1-2</t>
@@ -99,15 +76,6 @@
     <t>Campos Obligatorios</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifica los posibles estados de la historia durante su ciclo de vida:
-- Vacío: La historia fue identifica pero aún no ha sido asignada a una iteración.
-- Planificada: La historia fue asignada a una iteración y aún no ha comenzado su ejecución. Puede tener este estado incluyendo en la iteración donde está planificado ejecutarla (pero que aún no ha comenzado).
-- En Proceso: La historia fue seleccionada por el equipo y está en proceso de desarrollo (en ejecución).
-- Hecho (Donde): La historia fue desarrollada. Es importante clarificar la definición de “Hecho” con el equipo de trabajo. “Hecho” no sólo incluye el desarrollo sino la integración y pruebas integrales del Software. Una historia hecha puede presentarse al dueño de producto para sus pruebas de aceptación.
-- Descartada: Se determinó que la historia ya no es relevante, su contenido se incluyó en otro grupo de historias o fue cancelada.
-</t>
-  </si>
-  <si>
     <t>1-3</t>
   </si>
   <si>
@@ -115,9 +83,6 @@
   </si>
   <si>
     <t>Log In</t>
-  </si>
-  <si>
-    <t>Medida del esfuerzo (tamaño) que implica desarrollar la historia, existen distintos métodos para medirlo, un ejemplo es los “puntos de historia” una medida de complejidad no necesariamente relacionado con jornadas o días. Otra forma de medirlo es con días o jornadas ideales.</t>
   </si>
   <si>
     <t>1-4</t>
@@ -132,9 +97,6 @@
     <t>Baja</t>
   </si>
   <si>
-    <t>Iteración o Sprint al que se asigna la historia. Esta asignación puede cambiar en cada iteración donde se haga la revisión de la pila de producto (ProductBacklogReview), según las prioridades indicadas por el dueño de producto. Por medio de este campo se puede crear un “Plan de Salidas a Productivo” (Release Plan).</t>
-  </si>
-  <si>
     <t>1-5</t>
   </si>
   <si>
@@ -142,9 +104,6 @@
   </si>
   <si>
     <t>Recuperar contraseña</t>
-  </si>
-  <si>
-    <t>Siguiendo el marco de trabajo ágil y Scrum, se le deben asignar prioridades a las historias, según las instrucciones del dueño de producto (ProductOwner). De esta forma pueden ordenarse. Las historias de mayor prioridad deben ser las que agregan más valor al negocio, y deben ser originadas en sus necesidades.</t>
   </si>
   <si>
     <t>Normal</t>
@@ -157,9 +116,6 @@
   </si>
   <si>
     <t>Guardar Sesión</t>
-  </si>
-  <si>
-    <t>Comentarios o detalles relacionadas que expliquen la historia. Para definiciones de mayor longitud deben usarse documentos externos, por ejemplo la plantilla de historias de usuario.</t>
   </si>
   <si>
     <t>1-8</t>
@@ -414,9 +370,6 @@
     <t>Seleccionar grupo</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Como usuario, al crear un alumno, necesito que entre las opciones de grupos en la lista deplegable se encuentre "ningun grupo", con el fin de poder añadir este usuario a ningun grupo en particular</t>
   </si>
   <si>
@@ -488,6 +441,104 @@
   <si>
     <t>Volver a lista</t>
   </si>
+  <si>
+    <t>Como usuario, necesito tener acceso (solo) a editar perfil y reuniones, con la finalidad de ver solo lo importante para el rol</t>
+  </si>
+  <si>
+    <t>Rol usuario</t>
+  </si>
+  <si>
+    <t>5º Sprint</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que al pulsar "reuniones" se desplieguen las asignaturas para las que el usuario esta matriculado, con la finalidad de poder ver las asignaturas para las que puedo solicitar reunion</t>
+  </si>
+  <si>
+    <t>Pulsar Reuniones</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que al pulsar una asignatura se solicite una reunion, con la finalidad de solicitar reuniones</t>
+  </si>
+  <si>
+    <t>Solicitar reunion</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que la materia para la que he solicitado reunion pase a color verde, con la finalidad de tener una confirmacion visual de las materias para las que he solicitado reunion</t>
+  </si>
+  <si>
+    <t>Reunion en verde</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que si otro miembro del grupo ha solicitado reunion se pinte en verde en mi lista de asignaturas tambien, con la finalidad de saber para que asignaturas el grupo ha solicitado reunion</t>
+  </si>
+  <si>
+    <t>Reuniones a nivel grupo en verde</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que no sea posible solicitar una reunion para una asignatura a la que yo mismo o algun miembro del grupo tenga solicitud, con la finalidad de que no se sobreescriban las reuniones</t>
+  </si>
+  <si>
+    <t>Validar solicitud de reunion</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito pulsar sobre una asignatura en verde para cancelar la solicitud de reunion, con la finalidad de cancelar las reuniones solicitadas</t>
+  </si>
+  <si>
+    <t>Cancelar reunion</t>
+  </si>
+  <si>
+    <t>Como usuario, necesito que al intentar cancelar una reunion un popup me solicite confirmacion, con la finalidad de no cancelar reuniones por accidente</t>
+  </si>
+  <si>
+    <t>Popup confirmar cancelacion</t>
+  </si>
+  <si>
+    <t>Programada</t>
+  </si>
+  <si>
+    <t>Pila de Producto (Product Backlog): Instructivo</t>
+  </si>
+  <si>
+    <t>Elaborado por: miembros</t>
+  </si>
+  <si>
+    <t>Columna</t>
+  </si>
+  <si>
+    <t>Instrucciones</t>
+  </si>
+  <si>
+    <t>Código que identifica a la historia de forma unívoca, una vez asignado, no debe ser re-usado en otra historia, ni siquiera si la historia es descartada. El código identifica la historia en otros documentos, como por ejemplo la plantilla de historias de usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de la historia, el cual debe ser el mismo que se utiliza en otros documentos. Se puede utilizar el formato siguiente:
+Como un [Rol], Necesito [Descripción de la Funcionalidad], con la finalidad de [Razón o Resultado]
+</t>
+  </si>
+  <si>
+    <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica los posibles estados de la historia durante su ciclo de vida:
+- Vacío: La historia fue identifica pero aún no ha sido asignada a una iteración.
+- Planificada: La historia fue asignada a una iteración y aún no ha comenzado su ejecución. Puede tener este estado incluyendo en la iteración donde está planificado ejecutarla (pero que aún no ha comenzado).
+- En Proceso: La historia fue seleccionada por el equipo y está en proceso de desarrollo (en ejecución).
+- Hecho (Donde): La historia fue desarrollada. Es importante clarificar la definición de “Hecho” con el equipo de trabajo. “Hecho” no sólo incluye el desarrollo sino la integración y pruebas integrales del Software. Una historia hecha puede presentarse al dueño de producto para sus pruebas de aceptación.
+- Descartada: Se determinó que la historia ya no es relevante, su contenido se incluyó en otro grupo de historias o fue cancelada.
+</t>
+  </si>
+  <si>
+    <t>Medida del esfuerzo (tamaño) que implica desarrollar la historia, existen distintos métodos para medirlo, un ejemplo es los “puntos de historia” una medida de complejidad no necesariamente relacionado con jornadas o días. Otra forma de medirlo es con días o jornadas ideales.</t>
+  </si>
+  <si>
+    <t>Iteración o Sprint al que se asigna la historia. Esta asignación puede cambiar en cada iteración donde se haga la revisión de la pila de producto (ProductBacklogReview), según las prioridades indicadas por el dueño de producto. Por medio de este campo se puede crear un “Plan de Salidas a Productivo” (Release Plan).</t>
+  </si>
+  <si>
+    <t>Siguiendo el marco de trabajo ágil y Scrum, se le deben asignar prioridades a las historias, según las instrucciones del dueño de producto (ProductOwner). De esta forma pueden ordenarse. Las historias de mayor prioridad deben ser las que agregan más valor al negocio, y deben ser originadas en sus necesidades.</t>
+  </si>
+  <si>
+    <t>Comentarios o detalles relacionadas que expliquen la historia. Para definiciones de mayor longitud deben usarse documentos externos, por ejemplo la plantilla de historias de usuario.</t>
+  </si>
 </sst>
 </file>
 
@@ -539,8 +590,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -569,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border/>
     <border>
       <left/>
@@ -601,16 +652,11 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -620,12 +666,8 @@
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -650,9 +692,6 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -661,32 +700,35 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -696,7 +738,22 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -962,7 +1019,7 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1020,28 +1077,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1061,31 +1118,31 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" ht="36.0" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1103,31 +1160,31 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
+    <row r="6" ht="39.75" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10">
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8">
         <v>5.0</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>20</v>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>21</v>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1145,31 +1202,31 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
+    <row r="7" ht="35.25" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>8.0</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>20</v>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1187,31 +1244,31 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
+    <row r="8" ht="30.75" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>33</v>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>18</v>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>5.0</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>20</v>
+      <c r="G8" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>34</v>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1229,55 +1286,55 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
-      <c r="B9" s="9" t="s">
-        <v>36</v>
+    <row r="9" ht="34.5" customHeight="1">
+      <c r="B9" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>18</v>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>4.0</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>40</v>
+      <c r="H9" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>41</v>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" ht="40.5" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>43</v>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>18</v>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>6.0</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>20</v>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>34</v>
+      <c r="H10" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1295,73 +1352,73 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>45</v>
+    <row r="11" ht="41.25" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>46</v>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>18</v>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>10.0</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>20</v>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>48</v>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>49</v>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+    </row>
+    <row r="12" ht="40.5" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>50</v>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>51</v>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>18</v>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>6.0</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>20</v>
+      <c r="G12" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>52</v>
+      <c r="H12" s="8" t="s">
+        <v>40</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1379,31 +1436,31 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>53</v>
+    <row r="13" ht="35.25" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>54</v>
+      <c r="C13" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>55</v>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
+      <c r="E13" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>7.0</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>56</v>
+      <c r="G13" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>21</v>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1421,31 +1478,31 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>53</v>
+    <row r="14" ht="39.75" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>57</v>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>58</v>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>18</v>
+      <c r="E14" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>8.0</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>56</v>
+      <c r="G14" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>34</v>
+      <c r="H14" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1463,31 +1520,31 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>59</v>
+    <row r="15" ht="39.0" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>47</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>60</v>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>61</v>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>18</v>
+      <c r="E15" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>4.0</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>56</v>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>40</v>
+      <c r="H15" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1505,31 +1562,31 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>62</v>
+    <row r="16" ht="42.0" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>50</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>63</v>
+      <c r="C16" s="8" t="s">
+        <v>51</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>64</v>
+      <c r="D16" s="8" t="s">
+        <v>52</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>18</v>
+      <c r="E16" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>3.0</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>56</v>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>40</v>
+      <c r="H16" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1547,31 +1604,31 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>65</v>
+    <row r="17" ht="38.25" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>53</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>66</v>
+      <c r="C17" s="15" t="s">
+        <v>54</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>67</v>
+      <c r="D17" s="15" t="s">
+        <v>55</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>18</v>
+      <c r="E17" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="15">
         <v>3.0</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>56</v>
+      <c r="G17" s="15" t="s">
+        <v>44</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>40</v>
+      <c r="H17" s="15" t="s">
+        <v>29</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1589,31 +1646,31 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>68</v>
+    <row r="18" ht="37.5" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>56</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>69</v>
+      <c r="C18" s="15" t="s">
+        <v>57</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>70</v>
+      <c r="D18" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>18</v>
+      <c r="E18" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>8.0</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>56</v>
+      <c r="G18" s="15" t="s">
+        <v>44</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>40</v>
+      <c r="H18" s="15" t="s">
+        <v>29</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1631,31 +1688,31 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
-        <v>68</v>
+    <row r="19" ht="38.25" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>56</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>71</v>
+      <c r="C19" s="15" t="s">
+        <v>59</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>72</v>
+      <c r="D19" s="15" t="s">
+        <v>60</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>18</v>
+      <c r="E19" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>10.0</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>56</v>
+      <c r="G19" s="15" t="s">
+        <v>44</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>21</v>
+      <c r="H19" s="15" t="s">
+        <v>15</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1673,31 +1730,31 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>73</v>
+    <row r="20" ht="34.5" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>74</v>
+      <c r="C20" s="15" t="s">
+        <v>62</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>75</v>
+      <c r="D20" s="15" t="s">
+        <v>63</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>18</v>
+      <c r="E20" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>4.0</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>56</v>
+      <c r="G20" s="15" t="s">
+        <v>44</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>40</v>
+      <c r="H20" s="15" t="s">
+        <v>29</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1715,31 +1772,31 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>76</v>
+    <row r="21" ht="36.75" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>77</v>
+      <c r="C21" s="8" t="s">
+        <v>65</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>78</v>
+      <c r="D21" s="8" t="s">
+        <v>66</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>8.0</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>79</v>
+      <c r="G21" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>21</v>
+      <c r="H21" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1757,31 +1814,31 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>80</v>
+    <row r="22" ht="38.25" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>81</v>
+      <c r="C22" s="8" t="s">
+        <v>69</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>82</v>
+      <c r="D22" s="8" t="s">
+        <v>70</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>18</v>
+      <c r="E22" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>3.0</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>79</v>
+      <c r="G22" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>34</v>
+      <c r="H22" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1799,31 +1856,31 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
+    <row r="23" ht="45.0" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>84</v>
+      <c r="C23" s="8" t="s">
+        <v>72</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>85</v>
+      <c r="D23" s="8" t="s">
+        <v>73</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>18</v>
+      <c r="E23" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>9.0</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>79</v>
+      <c r="G23" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>40</v>
+      <c r="H23" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1841,31 +1898,31 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
-        <v>86</v>
+    <row r="24" ht="40.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>74</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>87</v>
+      <c r="C24" s="8" t="s">
+        <v>75</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>88</v>
+      <c r="D24" s="8" t="s">
+        <v>76</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>18</v>
+      <c r="E24" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>7.0</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>79</v>
+      <c r="G24" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>21</v>
+      <c r="H24" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1883,31 +1940,31 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
-        <v>89</v>
+    <row r="25" ht="48.75" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>77</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>90</v>
+      <c r="C25" s="8" t="s">
+        <v>78</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>91</v>
+      <c r="D25" s="8" t="s">
+        <v>79</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>18</v>
+      <c r="E25" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>8.0</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>79</v>
+      <c r="G25" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>40</v>
+      <c r="H25" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1925,31 +1982,31 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>92</v>
+    <row r="26" ht="45.75" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>80</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>93</v>
+      <c r="C26" s="8" t="s">
+        <v>81</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>94</v>
+      <c r="D26" s="8" t="s">
+        <v>82</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>18</v>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>4.0</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>79</v>
+      <c r="G26" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>21</v>
+      <c r="H26" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1967,29 +2024,29 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27">
-      <c r="B27" s="9" t="s">
-        <v>95</v>
+    <row r="27" ht="40.5" customHeight="1">
+      <c r="B27" s="7" t="s">
+        <v>83</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>96</v>
+      <c r="C27" s="8" t="s">
+        <v>84</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>97</v>
+      <c r="D27" s="8" t="s">
+        <v>85</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>18</v>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>4.0</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>79</v>
+      <c r="G27" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>21</v>
+      <c r="H27" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2008,29 +2065,29 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28">
-      <c r="B28" s="9" t="s">
-        <v>98</v>
+    <row r="28" ht="42.0" customHeight="1">
+      <c r="B28" s="7" t="s">
+        <v>86</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>99</v>
+      <c r="C28" s="8" t="s">
+        <v>87</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>100</v>
+      <c r="D28" s="8" t="s">
+        <v>88</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>18</v>
+      <c r="E28" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>8.0</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>79</v>
+      <c r="G28" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>40</v>
+      <c r="H28" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2049,29 +2106,29 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29">
-      <c r="B29" s="9" t="s">
-        <v>101</v>
+    <row r="29" ht="42.75" customHeight="1">
+      <c r="B29" s="7" t="s">
+        <v>89</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>102</v>
+      <c r="C29" s="8" t="s">
+        <v>90</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>103</v>
+      <c r="D29" s="8" t="s">
+        <v>91</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>18</v>
+      <c r="E29" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>7.0</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>79</v>
+      <c r="G29" s="8" t="s">
+        <v>67</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>40</v>
+      <c r="H29" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2091,29 +2148,29 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>104</v>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>92</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>105</v>
+      <c r="C30" s="15" t="s">
+        <v>93</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>106</v>
+      <c r="D30" s="15" t="s">
+        <v>94</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>18</v>
+      <c r="E30" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="15">
         <v>5.0</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>79</v>
+      <c r="G30" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>34</v>
+      <c r="H30" s="15" t="s">
+        <v>25</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2132,31 +2189,31 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
-        <v>107</v>
+    <row r="31" ht="51.75" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
+        <v>95</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>108</v>
+      <c r="C31" s="15" t="s">
+        <v>96</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>109</v>
+      <c r="D31" s="15" t="s">
+        <v>97</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>18</v>
+      <c r="E31" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="15">
         <v>5.0</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>79</v>
+      <c r="G31" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>34</v>
+      <c r="H31" s="15" t="s">
+        <v>25</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="11"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2174,31 +2231,31 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
-        <v>110</v>
+    <row r="32" ht="45.75" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7" t="s">
+        <v>98</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>111</v>
+      <c r="C32" s="15" t="s">
+        <v>99</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>112</v>
+      <c r="D32" s="15" t="s">
+        <v>100</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>18</v>
+      <c r="E32" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="15">
         <v>8.0</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>79</v>
+      <c r="G32" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>21</v>
+      <c r="H32" s="15" t="s">
+        <v>15</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="11"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2216,31 +2273,31 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
-        <v>113</v>
+    <row r="33" ht="45.75" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>101</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>114</v>
+      <c r="C33" s="15" t="s">
+        <v>102</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>115</v>
+      <c r="D33" s="15" t="s">
+        <v>103</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>18</v>
+      <c r="E33" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="15">
         <v>8.0</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>79</v>
+      <c r="G33" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>21</v>
+      <c r="H33" s="15" t="s">
+        <v>15</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="11"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2258,114 +2315,114 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
-        <v>116</v>
+    <row r="34" ht="42.0" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
+        <v>104</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>117</v>
+      <c r="C34" s="17" t="s">
+        <v>105</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>118</v>
+      <c r="D34" s="17" t="s">
+        <v>106</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>18</v>
+      <c r="E34" s="17" t="s">
+        <v>13</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="17">
         <v>10.0</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>79</v>
+      <c r="G34" s="17" t="s">
+        <v>67</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>34</v>
+      <c r="H34" s="17" t="s">
+        <v>25</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="13" t="s">
-        <v>119</v>
+      <c r="I34" s="18"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+    </row>
+    <row r="35" ht="39.75" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="11" t="s">
+        <v>107</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>120</v>
+      <c r="C35" s="17" t="s">
+        <v>108</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>121</v>
+      <c r="D35" s="12" t="s">
+        <v>109</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>18</v>
+      <c r="E35" s="12" t="s">
+        <v>13</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="12">
         <v>10.0</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>79</v>
+      <c r="G35" s="12" t="s">
+        <v>67</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>34</v>
+      <c r="H35" s="12" t="s">
+        <v>25</v>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="23">
+      <c r="I35" s="12"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+    </row>
+    <row r="36" ht="41.25" customHeight="1">
+      <c r="B36" s="20">
         <v>43922.0</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>122</v>
+      <c r="C36" s="8" t="s">
+        <v>110</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>123</v>
+      <c r="D36" s="21" t="s">
+        <v>111</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>18</v>
+      <c r="E36" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="22">
         <v>5.0</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>124</v>
+      <c r="G36" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H36" s="26" t="s">
-        <v>21</v>
+      <c r="H36" s="22" t="s">
+        <v>15</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="11"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2383,31 +2440,31 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-      <c r="B37" s="23">
+    <row r="37" ht="39.75" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="20">
         <v>43923.0</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>125</v>
+      <c r="C37" s="8" t="s">
+        <v>113</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>126</v>
+      <c r="D37" s="15" t="s">
+        <v>114</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>18</v>
+      <c r="E37" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="22">
         <v>5.0</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>124</v>
+      <c r="G37" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H37" s="26" t="s">
-        <v>34</v>
+      <c r="H37" s="22" t="s">
+        <v>25</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="11"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2425,73 +2482,73 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8"/>
-      <c r="B38" s="23">
+    <row r="38" ht="45.0" customHeight="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25">
         <v>43924.0</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>127</v>
+      <c r="C38" s="26" t="s">
+        <v>115</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>128</v>
+      <c r="D38" s="27" t="s">
+        <v>116</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>129</v>
+      <c r="E38" s="28" t="s">
+        <v>13</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="27">
         <v>5.0</v>
       </c>
-      <c r="G38" s="26" t="s">
-        <v>124</v>
+      <c r="G38" s="27" t="s">
+        <v>112</v>
       </c>
-      <c r="H38" s="26" t="s">
-        <v>40</v>
+      <c r="H38" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="8"/>
-      <c r="B39" s="23">
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+    </row>
+    <row r="39" ht="45.0" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="20">
         <v>43925.0</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>130</v>
+      <c r="C39" s="15" t="s">
+        <v>117</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>131</v>
+      <c r="D39" s="22" t="s">
+        <v>118</v>
       </c>
-      <c r="E39" s="26" t="s">
-        <v>18</v>
+      <c r="E39" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="22">
         <v>5.0</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>124</v>
+      <c r="G39" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H39" s="26" t="s">
-        <v>34</v>
+      <c r="H39" s="22" t="s">
+        <v>25</v>
       </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="11"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2509,31 +2566,31 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="8"/>
-      <c r="B40" s="23">
+    <row r="40" ht="45.75" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="20">
         <v>43926.0</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>132</v>
+      <c r="C40" s="15" t="s">
+        <v>119</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>133</v>
+      <c r="D40" s="22" t="s">
+        <v>120</v>
       </c>
-      <c r="E40" s="26" t="s">
-        <v>18</v>
+      <c r="E40" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="22">
         <v>10.0</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>124</v>
+      <c r="G40" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H40" s="26" t="s">
-        <v>40</v>
+      <c r="H40" s="22" t="s">
+        <v>29</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="11"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2551,31 +2608,31 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="8"/>
-      <c r="B41" s="23">
+    <row r="41" ht="46.5" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="20">
         <v>43927.0</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>134</v>
+      <c r="C41" s="15" t="s">
+        <v>121</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>135</v>
+      <c r="D41" s="15" t="s">
+        <v>122</v>
       </c>
-      <c r="E41" s="26" t="s">
-        <v>18</v>
+      <c r="E41" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="22">
         <v>5.0</v>
       </c>
-      <c r="G41" s="26" t="s">
-        <v>124</v>
+      <c r="G41" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H41" s="26" t="s">
-        <v>40</v>
+      <c r="H41" s="22" t="s">
+        <v>29</v>
       </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="11"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2594,30 +2651,30 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42">
-      <c r="A42" s="8"/>
-      <c r="B42" s="28">
+      <c r="A42" s="6"/>
+      <c r="B42" s="20">
         <v>43928.0</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>136</v>
+      <c r="C42" s="8" t="s">
+        <v>123</v>
       </c>
-      <c r="D42" s="29" t="s">
-        <v>137</v>
+      <c r="D42" s="15" t="s">
+        <v>124</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>18</v>
+      <c r="E42" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="15">
         <v>6.0</v>
       </c>
-      <c r="G42" s="26" t="s">
-        <v>124</v>
+      <c r="G42" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H42" s="29" t="s">
-        <v>21</v>
+      <c r="H42" s="15" t="s">
+        <v>15</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="11"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2635,31 +2692,31 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="8"/>
-      <c r="B43" s="28">
+    <row r="43" ht="46.5" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="20">
         <v>43929.0</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>138</v>
+      <c r="C43" s="8" t="s">
+        <v>125</v>
       </c>
-      <c r="D43" s="29" t="s">
-        <v>139</v>
+      <c r="D43" s="15" t="s">
+        <v>126</v>
       </c>
-      <c r="E43" s="29" t="s">
-        <v>18</v>
+      <c r="E43" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="15">
         <v>3.0</v>
       </c>
-      <c r="G43" s="26" t="s">
-        <v>124</v>
+      <c r="G43" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H43" s="29" t="s">
-        <v>21</v>
+      <c r="H43" s="15" t="s">
+        <v>15</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="11"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2677,31 +2734,31 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="8"/>
-      <c r="B44" s="28">
+    <row r="44" ht="47.25" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="20">
         <v>43930.0</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>140</v>
+      <c r="C44" s="8" t="s">
+        <v>127</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>141</v>
+      <c r="D44" s="15" t="s">
+        <v>128</v>
       </c>
-      <c r="E44" s="29" t="s">
-        <v>18</v>
+      <c r="E44" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="15">
         <v>7.0</v>
       </c>
-      <c r="G44" s="26" t="s">
-        <v>124</v>
+      <c r="G44" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H44" s="29" t="s">
-        <v>40</v>
+      <c r="H44" s="15" t="s">
+        <v>29</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="11"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2719,31 +2776,31 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="8"/>
-      <c r="B45" s="28">
+    <row r="45" ht="45.75" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="20">
         <v>43931.0</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>142</v>
+      <c r="C45" s="15" t="s">
+        <v>129</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>143</v>
+      <c r="D45" s="15" t="s">
+        <v>130</v>
       </c>
-      <c r="E45" s="29" t="s">
-        <v>18</v>
+      <c r="E45" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="15">
         <v>3.0</v>
       </c>
-      <c r="G45" s="26" t="s">
-        <v>124</v>
+      <c r="G45" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H45" s="29" t="s">
-        <v>34</v>
+      <c r="H45" s="15" t="s">
+        <v>25</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="11"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2761,31 +2818,31 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="8"/>
-      <c r="B46" s="28">
+    <row r="46" ht="40.5" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="20">
         <v>43932.0</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>144</v>
+      <c r="C46" s="15" t="s">
+        <v>131</v>
       </c>
-      <c r="D46" s="29" t="s">
-        <v>145</v>
+      <c r="D46" s="15" t="s">
+        <v>132</v>
       </c>
-      <c r="E46" s="29" t="s">
-        <v>18</v>
+      <c r="E46" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="15">
         <v>9.0</v>
       </c>
-      <c r="G46" s="26" t="s">
-        <v>124</v>
+      <c r="G46" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H46" s="29" t="s">
-        <v>21</v>
+      <c r="H46" s="15" t="s">
+        <v>15</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="11"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2803,31 +2860,31 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="8"/>
-      <c r="B47" s="28">
+    <row r="47" ht="38.25" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="20">
         <v>43933.0</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>146</v>
+      <c r="C47" s="17" t="s">
+        <v>133</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>147</v>
+      <c r="D47" s="15" t="s">
+        <v>134</v>
       </c>
-      <c r="E47" s="29" t="s">
-        <v>18</v>
+      <c r="E47" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="15">
         <v>1.0</v>
       </c>
-      <c r="G47" s="26" t="s">
-        <v>124</v>
+      <c r="G47" s="22" t="s">
+        <v>112</v>
       </c>
-      <c r="H47" s="29" t="s">
-        <v>34</v>
+      <c r="H47" s="15" t="s">
+        <v>25</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="11"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2845,30 +2902,30 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" ht="44.25" customHeight="1">
       <c r="A48" s="32"/>
-      <c r="B48" s="28">
+      <c r="B48" s="20">
         <v>43934.0</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>148</v>
+      <c r="C48" s="15" t="s">
+        <v>135</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>149</v>
+      <c r="D48" s="15" t="s">
+        <v>136</v>
       </c>
-      <c r="E48" s="29" t="s">
-        <v>18</v>
+      <c r="E48" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="15">
         <v>6.0</v>
       </c>
-      <c r="G48" s="19" t="s">
-        <v>124</v>
+      <c r="G48" s="15" t="s">
+        <v>112</v>
       </c>
-      <c r="H48" s="29" t="s">
-        <v>40</v>
+      <c r="H48" s="15" t="s">
+        <v>29</v>
       </c>
-      <c r="I48" s="30"/>
+      <c r="I48" s="16"/>
       <c r="J48" s="33"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
@@ -2887,101 +2944,115 @@
       <c r="Y48" s="34"/>
       <c r="Z48" s="34"/>
     </row>
-    <row r="49">
-      <c r="A49" s="8"/>
-      <c r="B49" s="28">
+    <row r="49" ht="37.5" customHeight="1">
+      <c r="A49" s="24"/>
+      <c r="B49" s="25">
         <v>43935.0</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>150</v>
+      <c r="C49" s="26" t="s">
+        <v>137</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>151</v>
+      <c r="D49" s="26" t="s">
+        <v>138</v>
       </c>
-      <c r="E49" s="29" t="s">
-        <v>129</v>
+      <c r="E49" s="35" t="s">
+        <v>13</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="26">
         <v>5.0</v>
       </c>
-      <c r="G49" s="26" t="s">
-        <v>124</v>
+      <c r="G49" s="27" t="s">
+        <v>112</v>
       </c>
-      <c r="H49" s="29" t="s">
-        <v>34</v>
+      <c r="H49" s="26" t="s">
+        <v>25</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8"/>
-      <c r="B50" s="28">
+      <c r="I49" s="26"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="31"/>
+    </row>
+    <row r="50" ht="45.0" customHeight="1">
+      <c r="A50" s="24"/>
+      <c r="B50" s="25">
         <v>43936.0</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>152</v>
+      <c r="C50" s="26" t="s">
+        <v>139</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>153</v>
+      <c r="D50" s="26" t="s">
+        <v>140</v>
       </c>
-      <c r="E50" s="29" t="s">
-        <v>129</v>
+      <c r="E50" s="35" t="s">
+        <v>13</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="26">
         <v>10.0</v>
       </c>
-      <c r="G50" s="26" t="s">
-        <v>124</v>
+      <c r="G50" s="27" t="s">
+        <v>112</v>
       </c>
-      <c r="H50" s="29" t="s">
-        <v>34</v>
+      <c r="H50" s="26" t="s">
+        <v>25</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="8"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="11"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31"/>
+    </row>
+    <row r="51" ht="45.0" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="20">
+        <v>43952.0</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="37">
+        <v>6.0</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2999,17 +3070,31 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="1"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="1"/>
+    <row r="52" ht="44.25" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="38">
+        <v>43953.0</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="37">
+        <v>9.0</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3027,17 +3112,31 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+    <row r="53" ht="42.75" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="38">
+        <v>43954.0</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="37">
+        <v>10.0</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3055,17 +3154,31 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+    <row r="54" ht="45.75" customHeight="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="38">
+        <v>43955.0</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3083,17 +3196,31 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+    <row r="55" ht="45.0" customHeight="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="38">
+        <v>43956.0</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="37">
+        <v>5.0</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3111,17 +3238,31 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+    <row r="56" ht="42.75" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="38">
+        <v>43957.0</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="37">
+        <v>5.0</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3139,17 +3280,31 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+    <row r="57" ht="43.5" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="38">
+        <v>43958.0</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="37">
+        <v>5.0</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3167,17 +3322,31 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+    <row r="58" ht="39.75" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="38">
+        <v>43959.0</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="37">
+        <v>5.0</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3196,16 +3365,16 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3224,16 +3393,16 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3252,16 +3421,16 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3280,16 +3449,16 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3308,16 +3477,16 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3336,16 +3505,16 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3364,16 +3533,16 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3392,16 +3561,16 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3420,16 +3589,16 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3448,16 +3617,16 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3476,16 +3645,16 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3504,16 +3673,16 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3532,16 +3701,16 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="9"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3560,16 +3729,16 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -29486,34 +29655,6 @@
       <c r="X997" s="1"/>
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1"/>
-      <c r="L998" s="1"/>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
-      <c r="P998" s="1"/>
-      <c r="Q998" s="1"/>
-      <c r="R998" s="1"/>
-      <c r="S998" s="1"/>
-      <c r="T998" s="1"/>
-      <c r="U998" s="1"/>
-      <c r="V998" s="1"/>
-      <c r="W998" s="1"/>
-      <c r="X998" s="1"/>
-      <c r="Y998" s="1"/>
-      <c r="Z998" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -29543,7 +29684,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -29573,7 +29714,7 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -29630,11 +29771,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
+      <c r="B4" s="39" t="s">
+        <v>161</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
+      <c r="C4" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -29662,11 +29803,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
+      <c r="B5" s="40" t="s">
+        <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
+      <c r="C5" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -29694,11 +29835,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
+      <c r="B6" s="40" t="s">
+        <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
+      <c r="C6" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -29726,11 +29867,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
+      <c r="B7" s="40" t="s">
+        <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
+      <c r="C7" s="40" t="s">
+        <v>165</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29758,11 +29899,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
+      <c r="B8" s="40" t="s">
+        <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
+      <c r="C8" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -29790,11 +29931,11 @@
     </row>
     <row r="9" ht="50.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
+      <c r="B9" s="40" t="s">
+        <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
+      <c r="C9" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -29822,11 +29963,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
+      <c r="B10" s="40" t="s">
+        <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
+      <c r="C10" s="40" t="s">
+        <v>168</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -29854,11 +29995,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
+      <c r="B11" s="40" t="s">
+        <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>39</v>
+      <c r="C11" s="40" t="s">
+        <v>169</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -29886,11 +30027,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
+      <c r="B12" s="40" t="s">
+        <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
+      <c r="C12" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>

--- a/SCRUM/Product Backlog.xlsx
+++ b/SCRUM/Product Backlog.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miifUTFKpEHNnBGMzqz5MAxvvY0Wg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miANnLKdAaUguTERLSRia4+l8AyUg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="177">
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
@@ -493,7 +493,25 @@
     <t>Popup confirmar cancelacion</t>
   </si>
   <si>
-    <t>Programada</t>
+    <t>Como profesor, necesito que al pulsar en reuniones debe aparecer una lista de asignaturas para las que el usuario es profesor, con el fin de visualizar las asignaturas para las que puede haber reuniones</t>
+  </si>
+  <si>
+    <t>Reuniones profesor</t>
+  </si>
+  <si>
+    <t>6º Sprint</t>
+  </si>
+  <si>
+    <t>Como profesor, necesito que al pulsar en una asignatura, se debe de abrir una lista ordenada por fecha y hora de los grupos que han solicitado ayuda en esa asignatura, con la finalidad de visualizar los grupos que han solicitado reunion</t>
+  </si>
+  <si>
+    <t>Ver reuniones</t>
+  </si>
+  <si>
+    <t>Como profesor, necesito que al pulsar sobre un grupo, puede eliminar la solicitud de reunión, con la finalidad eliminar reuniones</t>
+  </si>
+  <si>
+    <t>Eliminar reunion profesor</t>
   </si>
   <si>
     <t>Pila de Producto (Product Backlog): Instructivo</t>
@@ -656,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -711,7 +729,7 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -721,14 +739,9 @@
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -738,17 +751,17 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2493,7 +2506,7 @@
       <c r="D38" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="27">
@@ -2505,24 +2518,24 @@
       <c r="H38" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
     </row>
     <row r="39" ht="45.0" customHeight="1">
       <c r="A39" s="6"/>
@@ -2903,7 +2916,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" ht="44.25" customHeight="1">
-      <c r="A48" s="32"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="20">
         <v>43934.0</v>
       </c>
@@ -2926,23 +2939,23 @@
         <v>29</v>
       </c>
       <c r="I48" s="16"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
     </row>
     <row r="49" ht="37.5" customHeight="1">
       <c r="A49" s="24"/>
@@ -2955,7 +2968,7 @@
       <c r="D49" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="26">
@@ -2968,23 +2981,23 @@
         <v>25</v>
       </c>
       <c r="I49" s="26"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
     </row>
     <row r="50" ht="45.0" customHeight="1">
       <c r="A50" s="24"/>
@@ -2997,7 +3010,7 @@
       <c r="D50" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="26">
@@ -3010,45 +3023,45 @@
         <v>25</v>
       </c>
       <c r="I50" s="26"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
     </row>
     <row r="51" ht="45.0" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="20">
         <v>43952.0</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="32" t="s">
         <v>141</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="15">
         <v>6.0</v>
       </c>
       <c r="G51" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H51" s="37" t="s">
+      <c r="H51" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I51" s="16"/>
@@ -3072,25 +3085,25 @@
     </row>
     <row r="52" ht="44.25" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="38">
+      <c r="B52" s="20">
         <v>43953.0</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="15">
         <v>9.0</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I52" s="16"/>
@@ -3114,25 +3127,25 @@
     </row>
     <row r="53" ht="42.75" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="38">
+      <c r="B53" s="20">
         <v>43954.0</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="15">
         <v>10.0</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I53" s="16"/>
@@ -3156,25 +3169,25 @@
     </row>
     <row r="54" ht="45.75" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="38">
+      <c r="B54" s="20">
         <v>43955.0</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="15">
         <v>3.0</v>
       </c>
       <c r="G54" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I54" s="16"/>
@@ -3198,25 +3211,25 @@
     </row>
     <row r="55" ht="45.0" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="38">
+      <c r="B55" s="20">
         <v>43956.0</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="15">
         <v>5.0</v>
       </c>
       <c r="G55" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H55" s="37" t="s">
+      <c r="H55" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I55" s="16"/>
@@ -3240,25 +3253,25 @@
     </row>
     <row r="56" ht="42.75" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="38">
+      <c r="B56" s="20">
         <v>43957.0</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="15">
         <v>5.0</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="H56" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I56" s="16"/>
@@ -3282,25 +3295,25 @@
     </row>
     <row r="57" ht="43.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="38">
+      <c r="B57" s="20">
         <v>43958.0</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="15">
         <v>5.0</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I57" s="16"/>
@@ -3322,27 +3335,27 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="39.75" customHeight="1">
+    <row r="58" ht="41.25" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="38">
+      <c r="B58" s="20">
         <v>43959.0</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>158</v>
+      <c r="E58" s="33" t="s">
+        <v>13</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="15">
         <v>5.0</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I58" s="16"/>
@@ -3364,15 +3377,29 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" ht="41.25" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="15"/>
+      <c r="B59" s="20">
+        <v>43983.0</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="I59" s="16"/>
       <c r="J59" s="9"/>
       <c r="K59" s="1"/>
@@ -3392,15 +3419,29 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" ht="41.25" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="15"/>
+      <c r="B60" s="20">
+        <v>43984.0</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="I60" s="16"/>
       <c r="J60" s="9"/>
       <c r="K60" s="1"/>
@@ -3420,15 +3461,29 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" ht="41.25" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="15"/>
+      <c r="B61" s="20">
+        <v>43985.0</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="I61" s="16"/>
       <c r="J61" s="9"/>
       <c r="K61" s="1"/>
@@ -3449,16 +3504,16 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="6"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="9"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3477,16 +3532,16 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="6"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="9"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3505,16 +3560,16 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="6"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="9"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3533,16 +3588,16 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65">
-      <c r="A65" s="6"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="9"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3561,16 +3616,16 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="6"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="9"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3589,16 +3644,16 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="6"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="9"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3617,16 +3672,16 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="6"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="9"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3645,16 +3700,16 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="6"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="9"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3673,16 +3728,16 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="6"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="9"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3701,16 +3756,16 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="6"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="9"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3729,16 +3784,16 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="6"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="9"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -29319,342 +29374,6 @@
       <c r="X985" s="1"/>
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="1"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="1"/>
-      <c r="G986" s="1"/>
-      <c r="H986" s="1"/>
-      <c r="I986" s="1"/>
-      <c r="J986" s="1"/>
-      <c r="K986" s="1"/>
-      <c r="L986" s="1"/>
-      <c r="M986" s="1"/>
-      <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
-      <c r="P986" s="1"/>
-      <c r="Q986" s="1"/>
-      <c r="R986" s="1"/>
-      <c r="S986" s="1"/>
-      <c r="T986" s="1"/>
-      <c r="U986" s="1"/>
-      <c r="V986" s="1"/>
-      <c r="W986" s="1"/>
-      <c r="X986" s="1"/>
-      <c r="Y986" s="1"/>
-      <c r="Z986" s="1"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="1"/>
-      <c r="E987" s="1"/>
-      <c r="F987" s="1"/>
-      <c r="G987" s="1"/>
-      <c r="H987" s="1"/>
-      <c r="I987" s="1"/>
-      <c r="J987" s="1"/>
-      <c r="K987" s="1"/>
-      <c r="L987" s="1"/>
-      <c r="M987" s="1"/>
-      <c r="N987" s="1"/>
-      <c r="O987" s="1"/>
-      <c r="P987" s="1"/>
-      <c r="Q987" s="1"/>
-      <c r="R987" s="1"/>
-      <c r="S987" s="1"/>
-      <c r="T987" s="1"/>
-      <c r="U987" s="1"/>
-      <c r="V987" s="1"/>
-      <c r="W987" s="1"/>
-      <c r="X987" s="1"/>
-      <c r="Y987" s="1"/>
-      <c r="Z987" s="1"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="1"/>
-      <c r="D988" s="1"/>
-      <c r="E988" s="1"/>
-      <c r="F988" s="1"/>
-      <c r="G988" s="1"/>
-      <c r="H988" s="1"/>
-      <c r="I988" s="1"/>
-      <c r="J988" s="1"/>
-      <c r="K988" s="1"/>
-      <c r="L988" s="1"/>
-      <c r="M988" s="1"/>
-      <c r="N988" s="1"/>
-      <c r="O988" s="1"/>
-      <c r="P988" s="1"/>
-      <c r="Q988" s="1"/>
-      <c r="R988" s="1"/>
-      <c r="S988" s="1"/>
-      <c r="T988" s="1"/>
-      <c r="U988" s="1"/>
-      <c r="V988" s="1"/>
-      <c r="W988" s="1"/>
-      <c r="X988" s="1"/>
-      <c r="Y988" s="1"/>
-      <c r="Z988" s="1"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1"/>
-      <c r="E989" s="1"/>
-      <c r="F989" s="1"/>
-      <c r="G989" s="1"/>
-      <c r="H989" s="1"/>
-      <c r="I989" s="1"/>
-      <c r="J989" s="1"/>
-      <c r="K989" s="1"/>
-      <c r="L989" s="1"/>
-      <c r="M989" s="1"/>
-      <c r="N989" s="1"/>
-      <c r="O989" s="1"/>
-      <c r="P989" s="1"/>
-      <c r="Q989" s="1"/>
-      <c r="R989" s="1"/>
-      <c r="S989" s="1"/>
-      <c r="T989" s="1"/>
-      <c r="U989" s="1"/>
-      <c r="V989" s="1"/>
-      <c r="W989" s="1"/>
-      <c r="X989" s="1"/>
-      <c r="Y989" s="1"/>
-      <c r="Z989" s="1"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
-      <c r="G990" s="1"/>
-      <c r="H990" s="1"/>
-      <c r="I990" s="1"/>
-      <c r="J990" s="1"/>
-      <c r="K990" s="1"/>
-      <c r="L990" s="1"/>
-      <c r="M990" s="1"/>
-      <c r="N990" s="1"/>
-      <c r="O990" s="1"/>
-      <c r="P990" s="1"/>
-      <c r="Q990" s="1"/>
-      <c r="R990" s="1"/>
-      <c r="S990" s="1"/>
-      <c r="T990" s="1"/>
-      <c r="U990" s="1"/>
-      <c r="V990" s="1"/>
-      <c r="W990" s="1"/>
-      <c r="X990" s="1"/>
-      <c r="Y990" s="1"/>
-      <c r="Z990" s="1"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-      <c r="E991" s="1"/>
-      <c r="F991" s="1"/>
-      <c r="G991" s="1"/>
-      <c r="H991" s="1"/>
-      <c r="I991" s="1"/>
-      <c r="J991" s="1"/>
-      <c r="K991" s="1"/>
-      <c r="L991" s="1"/>
-      <c r="M991" s="1"/>
-      <c r="N991" s="1"/>
-      <c r="O991" s="1"/>
-      <c r="P991" s="1"/>
-      <c r="Q991" s="1"/>
-      <c r="R991" s="1"/>
-      <c r="S991" s="1"/>
-      <c r="T991" s="1"/>
-      <c r="U991" s="1"/>
-      <c r="V991" s="1"/>
-      <c r="W991" s="1"/>
-      <c r="X991" s="1"/>
-      <c r="Y991" s="1"/>
-      <c r="Z991" s="1"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-      <c r="E992" s="1"/>
-      <c r="F992" s="1"/>
-      <c r="G992" s="1"/>
-      <c r="H992" s="1"/>
-      <c r="I992" s="1"/>
-      <c r="J992" s="1"/>
-      <c r="K992" s="1"/>
-      <c r="L992" s="1"/>
-      <c r="M992" s="1"/>
-      <c r="N992" s="1"/>
-      <c r="O992" s="1"/>
-      <c r="P992" s="1"/>
-      <c r="Q992" s="1"/>
-      <c r="R992" s="1"/>
-      <c r="S992" s="1"/>
-      <c r="T992" s="1"/>
-      <c r="U992" s="1"/>
-      <c r="V992" s="1"/>
-      <c r="W992" s="1"/>
-      <c r="X992" s="1"/>
-      <c r="Y992" s="1"/>
-      <c r="Z992" s="1"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1"/>
-      <c r="F993" s="1"/>
-      <c r="G993" s="1"/>
-      <c r="H993" s="1"/>
-      <c r="I993" s="1"/>
-      <c r="J993" s="1"/>
-      <c r="K993" s="1"/>
-      <c r="L993" s="1"/>
-      <c r="M993" s="1"/>
-      <c r="N993" s="1"/>
-      <c r="O993" s="1"/>
-      <c r="P993" s="1"/>
-      <c r="Q993" s="1"/>
-      <c r="R993" s="1"/>
-      <c r="S993" s="1"/>
-      <c r="T993" s="1"/>
-      <c r="U993" s="1"/>
-      <c r="V993" s="1"/>
-      <c r="W993" s="1"/>
-      <c r="X993" s="1"/>
-      <c r="Y993" s="1"/>
-      <c r="Z993" s="1"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
-      <c r="P994" s="1"/>
-      <c r="Q994" s="1"/>
-      <c r="R994" s="1"/>
-      <c r="S994" s="1"/>
-      <c r="T994" s="1"/>
-      <c r="U994" s="1"/>
-      <c r="V994" s="1"/>
-      <c r="W994" s="1"/>
-      <c r="X994" s="1"/>
-      <c r="Y994" s="1"/>
-      <c r="Z994" s="1"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
-      <c r="I995" s="1"/>
-      <c r="J995" s="1"/>
-      <c r="K995" s="1"/>
-      <c r="L995" s="1"/>
-      <c r="M995" s="1"/>
-      <c r="N995" s="1"/>
-      <c r="O995" s="1"/>
-      <c r="P995" s="1"/>
-      <c r="Q995" s="1"/>
-      <c r="R995" s="1"/>
-      <c r="S995" s="1"/>
-      <c r="T995" s="1"/>
-      <c r="U995" s="1"/>
-      <c r="V995" s="1"/>
-      <c r="W995" s="1"/>
-      <c r="X995" s="1"/>
-      <c r="Y995" s="1"/>
-      <c r="Z995" s="1"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1"/>
-      <c r="L996" s="1"/>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
-      <c r="P996" s="1"/>
-      <c r="Q996" s="1"/>
-      <c r="R996" s="1"/>
-      <c r="S996" s="1"/>
-      <c r="T996" s="1"/>
-      <c r="U996" s="1"/>
-      <c r="V996" s="1"/>
-      <c r="W996" s="1"/>
-      <c r="X996" s="1"/>
-      <c r="Y996" s="1"/>
-      <c r="Z996" s="1"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-      <c r="U997" s="1"/>
-      <c r="V997" s="1"/>
-      <c r="W997" s="1"/>
-      <c r="X997" s="1"/>
-      <c r="Y997" s="1"/>
-      <c r="Z997" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -29684,7 +29403,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -29714,7 +29433,7 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -29771,11 +29490,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="39" t="s">
-        <v>161</v>
+      <c r="B4" s="36" t="s">
+        <v>167</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>162</v>
+      <c r="C4" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -29803,11 +29522,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>163</v>
+      <c r="C5" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -29835,11 +29554,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>164</v>
+      <c r="C6" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -29867,11 +29586,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>165</v>
+      <c r="C7" s="37" t="s">
+        <v>171</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29899,11 +29618,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>166</v>
+      <c r="C8" s="37" t="s">
+        <v>172</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -29931,11 +29650,11 @@
     </row>
     <row r="9" ht="50.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>167</v>
+      <c r="C9" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -29963,11 +29682,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>168</v>
+      <c r="C10" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -29995,11 +29714,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>169</v>
+      <c r="C11" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -30027,11 +29746,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>170</v>
+      <c r="C12" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
